--- a/企画系資料/やることリスト.xlsx
+++ b/企画系資料/やることリスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\Act_OneMonth\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\Act_OneMonth\企画系資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A95713E-786B-483C-AF63-512C3DA77CFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D2F0A9-0A02-4F12-AB0F-6CA57B47B562}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1570,7 +1570,7 @@
   <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>15</v>

--- a/企画系資料/やることリスト.xlsx
+++ b/企画系資料/やることリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\Act_OneMonth\企画系資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D2F0A9-0A02-4F12-AB0F-6CA57B47B562}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A847DCD6-E0F2-418B-950E-4969BAE1B195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -626,12 +626,19 @@
     <t>サイループやりたいな…</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>中止</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,6 +661,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1151,9 +1165,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1255,6 +1266,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1570,7 +1584,7 @@
   <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1583,27 +1597,27 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="2:9" ht="18.600000000000001" thickBot="1">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="22">
-        <f>COUNTIF(B5:B50, "完了") / COUNTA(B5:B50)</f>
-        <v>0.3125</v>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="21">
+        <f>COUNTIF(B5:B50, "完了") / (COUNTA(B5:B50) - COUNTIF(B5:B50, "中止"))</f>
+        <v>0.5</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>0</v>
@@ -1663,7 +1677,7 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>15</v>
@@ -1686,7 +1700,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>17</v>
@@ -1720,11 +1734,13 @@
       <c r="E8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20" t="s">
+      <c r="G8" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1755,15 +1771,15 @@
       <c r="E10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
     </row>
     <row r="11" spans="2:9" ht="18.600000000000001" thickTop="1">
       <c r="B11" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>
@@ -1774,18 +1790,18 @@
       <c r="E11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="44"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>28</v>
@@ -1793,13 +1809,13 @@
       <c r="E12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="47"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
     </row>
     <row r="13" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>15</v>
@@ -1824,15 +1840,15 @@
       <c r="E14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B15" s="6" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>16</v>
@@ -1843,9 +1859,9 @@
       <c r="E15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="52"/>
     </row>
     <row r="16" spans="2:9" ht="18.600000000000001" thickTop="1">
       <c r="B16" s="6" t="s">
@@ -1860,11 +1876,11 @@
       <c r="E16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="6" t="s">
@@ -1879,9 +1895,9 @@
       <c r="E17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="6" t="s">
@@ -1896,9 +1912,9 @@
       <c r="E18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="6" t="s">
@@ -1913,9 +1929,9 @@
       <c r="E19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="6" t="s">
@@ -1930,279 +1946,279 @@
       <c r="E20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="2"/>
       <c r="E21" s="8"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="2"/>
       <c r="E22" s="8"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="2"/>
       <c r="E23" s="8"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="2"/>
       <c r="E24" s="8"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="2"/>
       <c r="E25" s="8"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="2"/>
       <c r="E26" s="8"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
       <c r="E27" s="8"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="2"/>
       <c r="E28" s="8"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
       <c r="E29" s="8"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
       <c r="E30" s="8"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
       <c r="E31" s="8"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
       <c r="E32" s="8"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
       <c r="E33" s="8"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
       <c r="E34" s="8"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
       <c r="E35" s="8"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
       <c r="E36" s="8"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
       <c r="E37" s="8"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
       <c r="E38" s="8"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="24"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
       <c r="E39" s="8"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
       <c r="E40" s="8"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
       <c r="E41" s="8"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
       <c r="E42" s="8"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
       <c r="E43" s="8"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
       <c r="E44" s="8"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="24"/>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
       <c r="E45" s="8"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="24"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
       <c r="E46" s="8"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
       <c r="E47" s="8"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="24"/>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
       <c r="E48" s="8"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="24"/>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
       <c r="E49" s="8"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="24"/>
     </row>
     <row r="50" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B50" s="16"/>
       <c r="C50" s="17"/>
       <c r="D50" s="5"/>
       <c r="E50" s="18"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="29"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2229,7 +2245,7 @@
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B50" xr:uid="{D57336F4-FF89-4853-BF72-95641A164ED7}">
-      <formula1>$G$4:$G$7</formula1>
+      <formula1>$G$4:$G$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C50" xr:uid="{B66B4426-7D5E-4291-98E3-6E362CFCE609}">
       <formula1>$H$4:$H$8</formula1>

--- a/企画系資料/やることリスト.xlsx
+++ b/企画系資料/やることリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\DATA\00_School\01_Game\00_Git\Act_OneMonth\企画系資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A847DCD6-E0F2-418B-950E-4969BAE1B195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18907B91-A5C0-42CE-A19B-89665DCB44BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1174,6 +1174,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1266,9 +1269,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1584,7 +1584,7 @@
   <dimension ref="B1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1597,27 +1597,27 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="2:9" ht="18.600000000000001" thickBot="1">
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="21">
         <f>COUNTIF(B5:B50, "完了") / (COUNTA(B5:B50) - COUNTIF(B5:B50, "中止"))</f>
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>0</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>17</v>
@@ -1734,7 +1734,7 @@
       <c r="E8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="22" t="s">
         <v>56</v>
       </c>
       <c r="H8" s="19" t="s">
@@ -1771,11 +1771,11 @@
       <c r="E10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="2:9" ht="18.600000000000001" thickTop="1">
       <c r="B11" s="6" t="s">
@@ -1790,11 +1790,11 @@
       <c r="E11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
     </row>
     <row r="12" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B12" s="6" t="s">
@@ -1809,9 +1809,9 @@
       <c r="E12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
     </row>
     <row r="13" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B13" s="6" t="s">
@@ -1840,11 +1840,11 @@
       <c r="E14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
     </row>
     <row r="15" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B15" s="6" t="s">
@@ -1859,9 +1859,9 @@
       <c r="E15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="52"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
     </row>
     <row r="16" spans="2:9" ht="18.600000000000001" thickTop="1">
       <c r="B16" s="6" t="s">
@@ -1876,11 +1876,11 @@
       <c r="E16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="6" t="s">
@@ -1895,9 +1895,9 @@
       <c r="E17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="6" t="s">
@@ -1912,9 +1912,9 @@
       <c r="E18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="6" t="s">
@@ -1929,9 +1929,9 @@
       <c r="E19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="6" t="s">
@@ -1946,279 +1946,279 @@
       <c r="E20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="2"/>
       <c r="E21" s="8"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="2"/>
       <c r="E22" s="8"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="2"/>
       <c r="E23" s="8"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="2"/>
       <c r="E24" s="8"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="25"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="2"/>
       <c r="E25" s="8"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="2"/>
       <c r="E26" s="8"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
       <c r="E27" s="8"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="24"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="2"/>
       <c r="E28" s="8"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="24"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="2"/>
       <c r="E29" s="8"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
       <c r="E30" s="8"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="24"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="25"/>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
       <c r="E31" s="8"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="2"/>
       <c r="E32" s="8"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="24"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
       <c r="E33" s="8"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="24"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
       <c r="E34" s="8"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="24"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="25"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="2"/>
       <c r="E35" s="8"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="24"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="25"/>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="2"/>
       <c r="E36" s="8"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="24"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="25"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
       <c r="E37" s="8"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="24"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="25"/>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
       <c r="D38" s="2"/>
       <c r="E38" s="8"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="24"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="25"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="2"/>
       <c r="E39" s="8"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="24"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
       <c r="D40" s="2"/>
       <c r="E40" s="8"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="24"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
       <c r="D41" s="2"/>
       <c r="E41" s="8"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="24"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
       <c r="D42" s="2"/>
       <c r="E42" s="8"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="24"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="25"/>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
       <c r="D43" s="2"/>
       <c r="E43" s="8"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="24"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
       <c r="D44" s="2"/>
       <c r="E44" s="8"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="24"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="25"/>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
       <c r="D45" s="2"/>
       <c r="E45" s="8"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="24"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="25"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
       <c r="D46" s="2"/>
       <c r="E46" s="8"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="24"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="25"/>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
       <c r="D47" s="2"/>
       <c r="E47" s="8"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="24"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="25"/>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
       <c r="D48" s="2"/>
       <c r="E48" s="8"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="24"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="25"/>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
       <c r="D49" s="2"/>
       <c r="E49" s="8"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="24"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="25"/>
     </row>
     <row r="50" spans="2:9" ht="18.600000000000001" thickBot="1">
       <c r="B50" s="16"/>
       <c r="C50" s="17"/>
       <c r="D50" s="5"/>
       <c r="E50" s="18"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="28"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
